--- a/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>в %</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -581,518 +581,518 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Горнодобывающая промышленность</t>
+          <t>Промышленность</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>101.6</v>
+        <v>102.6</v>
       </c>
       <c r="C5" t="n">
-        <v>109.2</v>
+        <v>107.8</v>
       </c>
       <c r="D5" t="n">
-        <v>96.90000000000001</v>
+        <v>103.2</v>
       </c>
       <c r="E5" t="n">
-        <v>102.8</v>
+        <v>104.6</v>
       </c>
       <c r="F5" t="n">
-        <v>106.4</v>
+        <v>108.3</v>
       </c>
       <c r="G5" t="n">
-        <v>110.7</v>
+        <v>113</v>
       </c>
       <c r="H5" t="n">
-        <v>112.6</v>
+        <v>112</v>
       </c>
       <c r="I5" t="n">
-        <v>111.4</v>
+        <v>111.2</v>
       </c>
       <c r="J5" t="n">
-        <v>111.5</v>
+        <v>108.7</v>
       </c>
       <c r="K5" t="n">
-        <v>103.2</v>
+        <v>101.4</v>
       </c>
       <c r="L5" t="n">
-        <v>103.7</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Обрабатывающая промышленность</t>
+          <t>Горнодобывающая промышленность</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.9</v>
+        <v>101.6</v>
       </c>
       <c r="C6" t="n">
-        <v>109.5</v>
+        <v>109.2</v>
       </c>
       <c r="D6" t="n">
-        <v>109.9</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>106.9</v>
+        <v>102.8</v>
       </c>
       <c r="F6" t="n">
-        <v>109.9</v>
+        <v>106.4</v>
       </c>
       <c r="G6" t="n">
-        <v>115.3</v>
+        <v>110.7</v>
       </c>
       <c r="H6" t="n">
-        <v>111.6</v>
+        <v>112.6</v>
       </c>
       <c r="I6" t="n">
-        <v>110.5</v>
+        <v>111.4</v>
       </c>
       <c r="J6" t="n">
-        <v>106.2</v>
+        <v>111.5</v>
       </c>
       <c r="K6" t="n">
-        <v>100.1</v>
+        <v>103.2</v>
       </c>
       <c r="L6" t="n">
-        <v>104.1</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Снабжение электроэнергией</t>
+          <t>Обрабатывающая промышленность</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.7</v>
+        <v>104.9</v>
       </c>
       <c r="C7" t="n">
-        <v>100.7</v>
+        <v>109.5</v>
       </c>
       <c r="D7" t="n">
-        <v>109.4</v>
+        <v>109.9</v>
       </c>
       <c r="E7" t="n">
-        <v>104.7</v>
+        <v>106.9</v>
       </c>
       <c r="F7" t="n">
-        <v>108.8</v>
+        <v>109.9</v>
       </c>
       <c r="G7" t="n">
-        <v>114.7</v>
+        <v>115.3</v>
       </c>
       <c r="H7" t="n">
-        <v>109</v>
+        <v>111.6</v>
       </c>
       <c r="I7" t="n">
-        <v>110.1</v>
+        <v>110.5</v>
       </c>
       <c r="J7" t="n">
         <v>106.2</v>
       </c>
       <c r="K7" t="n">
-        <v>99.8</v>
+        <v>100.1</v>
       </c>
       <c r="L7" t="n">
-        <v>103.9</v>
+        <v>104.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Водоснабжение</t>
+          <t>Снабжение электроэнергией</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99.5</v>
+        <v>102.7</v>
       </c>
       <c r="C8" t="n">
-        <v>105.2</v>
+        <v>100.7</v>
       </c>
       <c r="D8" t="n">
-        <v>110.9</v>
+        <v>109.4</v>
       </c>
       <c r="E8" t="n">
-        <v>107.9</v>
+        <v>104.7</v>
       </c>
       <c r="F8" t="n">
-        <v>106.8</v>
+        <v>108.8</v>
       </c>
       <c r="G8" t="n">
-        <v>109.7</v>
+        <v>114.7</v>
       </c>
       <c r="H8" t="n">
-        <v>108.3</v>
+        <v>109</v>
       </c>
       <c r="I8" t="n">
-        <v>104.1</v>
+        <v>110.1</v>
       </c>
       <c r="J8" t="n">
-        <v>105.7</v>
+        <v>106.2</v>
       </c>
       <c r="K8" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
       <c r="L8" t="n">
-        <v>104.9</v>
+        <v>103.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Строительство</t>
+          <t>Водоснабжение</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>97.2</v>
+        <v>99.5</v>
       </c>
       <c r="C9" t="n">
-        <v>99.90000000000001</v>
+        <v>105.2</v>
       </c>
       <c r="D9" t="n">
-        <v>110.4</v>
+        <v>110.9</v>
       </c>
       <c r="E9" t="n">
-        <v>121.9</v>
+        <v>107.9</v>
       </c>
       <c r="F9" t="n">
-        <v>110.5</v>
+        <v>106.8</v>
       </c>
       <c r="G9" t="n">
-        <v>121.8</v>
+        <v>109.7</v>
       </c>
       <c r="H9" t="n">
-        <v>119</v>
+        <v>108.3</v>
       </c>
       <c r="I9" t="n">
-        <v>115.6</v>
+        <v>104.1</v>
       </c>
       <c r="J9" t="n">
-        <v>118.7</v>
+        <v>105.7</v>
       </c>
       <c r="K9" t="n">
-        <v>112.1</v>
+        <v>98.5</v>
       </c>
       <c r="L9" t="n">
-        <v>96.5</v>
+        <v>104.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Оптовая и розничная торговля</t>
+          <t>Строительство</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C10" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>116</v>
+        <v>110.4</v>
       </c>
       <c r="E10" t="n">
-        <v>109.2</v>
+        <v>121.9</v>
       </c>
       <c r="F10" t="n">
-        <v>105.7</v>
+        <v>110.5</v>
       </c>
       <c r="G10" t="n">
-        <v>108</v>
+        <v>121.8</v>
       </c>
       <c r="H10" t="n">
-        <v>103.2</v>
+        <v>119</v>
       </c>
       <c r="I10" t="n">
-        <v>103.5</v>
+        <v>115.6</v>
       </c>
       <c r="J10" t="n">
-        <v>106.4</v>
+        <v>118.7</v>
       </c>
       <c r="K10" t="n">
-        <v>101.9</v>
+        <v>112.1</v>
       </c>
       <c r="L10" t="n">
-        <v>105.3</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Транспорт и складирование</t>
+          <t>Оптовая и розничная торговля</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>103.4</v>
+        <v>102</v>
       </c>
       <c r="D11" t="n">
-        <v>107.3</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>110.7</v>
+        <v>109.2</v>
       </c>
       <c r="F11" t="n">
-        <v>107.5</v>
+        <v>105.7</v>
       </c>
       <c r="G11" t="n">
-        <v>118.8</v>
+        <v>108</v>
       </c>
       <c r="H11" t="n">
-        <v>118.3</v>
+        <v>103.2</v>
       </c>
       <c r="I11" t="n">
-        <v>112.7</v>
+        <v>103.5</v>
       </c>
       <c r="J11" t="n">
-        <v>109.2</v>
+        <v>106.4</v>
       </c>
       <c r="K11" t="n">
-        <v>102.4</v>
+        <v>101.9</v>
       </c>
       <c r="L11" t="n">
-        <v>107.7</v>
+        <v>105.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Предоставление услуг по проживанию и питанию</t>
+          <t>Транспорт и складирование</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.1</v>
+        <v>103</v>
       </c>
       <c r="C12" t="n">
-        <v>118.9</v>
+        <v>103.4</v>
       </c>
       <c r="D12" t="n">
-        <v>98.8</v>
+        <v>107.3</v>
       </c>
       <c r="E12" t="n">
-        <v>109.9</v>
+        <v>110.7</v>
       </c>
       <c r="F12" t="n">
-        <v>102</v>
+        <v>107.5</v>
       </c>
       <c r="G12" t="n">
-        <v>111.8</v>
+        <v>118.8</v>
       </c>
       <c r="H12" t="n">
-        <v>110.7</v>
+        <v>118.3</v>
       </c>
       <c r="I12" t="n">
-        <v>111.2</v>
+        <v>112.7</v>
       </c>
       <c r="J12" t="n">
-        <v>110.9</v>
+        <v>109.2</v>
       </c>
       <c r="K12" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="L12" t="n">
         <v>107.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Информация и связь</t>
+          <t>Предоставление услуг по проживанию и питанию</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104</v>
+        <v>110.1</v>
       </c>
       <c r="C13" t="n">
-        <v>100.1</v>
+        <v>118.9</v>
       </c>
       <c r="D13" t="n">
-        <v>115.5</v>
+        <v>98.8</v>
       </c>
       <c r="E13" t="n">
-        <v>110.3</v>
+        <v>109.9</v>
       </c>
       <c r="F13" t="n">
-        <v>106.9</v>
+        <v>102</v>
       </c>
       <c r="G13" t="n">
-        <v>115.3</v>
+        <v>111.8</v>
       </c>
       <c r="H13" t="n">
-        <v>104.2</v>
+        <v>110.7</v>
       </c>
       <c r="I13" t="n">
-        <v>106</v>
+        <v>111.2</v>
       </c>
       <c r="J13" t="n">
-        <v>110.3</v>
+        <v>110.9</v>
       </c>
       <c r="K13" t="n">
-        <v>108.6</v>
+        <v>107.7</v>
       </c>
       <c r="L13" t="n">
-        <v>117.5</v>
+        <v>97.40000000000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Финансовая и страховая деятельность</t>
+          <t>Информация и связь</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.5</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n">
-        <v>105.7</v>
+        <v>100.1</v>
       </c>
       <c r="D14" t="n">
-        <v>113.8</v>
+        <v>115.5</v>
       </c>
       <c r="E14" t="n">
-        <v>109.3</v>
+        <v>110.3</v>
       </c>
       <c r="F14" t="n">
-        <v>113.3</v>
+        <v>106.9</v>
       </c>
       <c r="G14" t="n">
-        <v>112.8</v>
+        <v>115.3</v>
       </c>
       <c r="H14" t="n">
-        <v>109.3</v>
+        <v>104.2</v>
       </c>
       <c r="I14" t="n">
-        <v>101.7</v>
+        <v>106</v>
       </c>
       <c r="J14" t="n">
-        <v>100.8</v>
+        <v>110.3</v>
       </c>
       <c r="K14" t="n">
-        <v>96.3</v>
+        <v>108.6</v>
       </c>
       <c r="L14" t="n">
-        <v>104.8</v>
+        <v>117.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Операции с недвижимым имуществом</t>
+          <t>Финансовая и страховая деятельность</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.3</v>
+        <v>98.5</v>
       </c>
       <c r="C15" t="n">
-        <v>89.2</v>
+        <v>105.7</v>
       </c>
       <c r="D15" t="n">
-        <v>100.3</v>
+        <v>113.8</v>
       </c>
       <c r="E15" t="n">
-        <v>94.5</v>
+        <v>109.3</v>
       </c>
       <c r="F15" t="n">
-        <v>98</v>
+        <v>113.3</v>
       </c>
       <c r="G15" t="n">
-        <v>114.9</v>
+        <v>112.8</v>
       </c>
       <c r="H15" t="n">
-        <v>103.1</v>
+        <v>109.3</v>
       </c>
       <c r="I15" t="n">
-        <v>101.1</v>
+        <v>101.7</v>
       </c>
       <c r="J15" t="n">
-        <v>85.90000000000001</v>
+        <v>100.8</v>
       </c>
       <c r="K15" t="n">
-        <v>91.5</v>
+        <v>96.3</v>
       </c>
       <c r="L15" t="n">
-        <v>100</v>
+        <v>104.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Профессиональная, научная и техническая деятельность</t>
+          <t>Операции с недвижимым имуществом</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.8</v>
+        <v>103.3</v>
       </c>
       <c r="C16" t="n">
-        <v>95.2</v>
+        <v>89.2</v>
       </c>
       <c r="D16" t="n">
-        <v>101.9</v>
+        <v>100.3</v>
       </c>
       <c r="E16" t="n">
-        <v>108</v>
+        <v>94.5</v>
       </c>
       <c r="F16" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G16" t="n">
-        <v>109.7</v>
+        <v>114.9</v>
       </c>
       <c r="H16" t="n">
-        <v>103.8</v>
+        <v>103.1</v>
       </c>
       <c r="I16" t="n">
-        <v>103.4</v>
+        <v>101.1</v>
       </c>
       <c r="J16" t="n">
-        <v>101.2</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>93.8</v>
+        <v>91.5</v>
       </c>
       <c r="L16" t="n">
-        <v>100.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Деятельность в области административного обслуживания</t>
+          <t>Профессиональная, научная и техническая деятельность</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>89.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="C17" t="n">
-        <v>99.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="D17" t="n">
-        <v>100.3</v>
+        <v>101.9</v>
       </c>
       <c r="E17" t="n">
-        <v>126.1</v>
+        <v>108</v>
       </c>
       <c r="F17" t="n">
-        <v>108.9</v>
+        <v>107</v>
       </c>
       <c r="G17" t="n">
-        <v>112.2</v>
+        <v>109.7</v>
       </c>
       <c r="H17" t="n">
-        <v>112.6</v>
+        <v>103.8</v>
       </c>
       <c r="I17" t="n">
-        <v>103.7</v>
+        <v>103.4</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3</v>
+        <v>101.2</v>
       </c>
       <c r="K17" t="n">
-        <v>107.3</v>
+        <v>93.8</v>
       </c>
       <c r="L17" t="n">
         <v>100.3</v>
@@ -1101,200 +1101,240 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Государственное управление и оборона</t>
+          <t>Деятельность в области административного обслуживания</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.6</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="C18" t="n">
-        <v>103.4</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>105.3</v>
+        <v>100.3</v>
       </c>
       <c r="E18" t="n">
-        <v>106.6</v>
+        <v>126.1</v>
       </c>
       <c r="F18" t="n">
-        <v>102.9</v>
+        <v>108.9</v>
       </c>
       <c r="G18" t="n">
-        <v>121.2</v>
+        <v>112.2</v>
       </c>
       <c r="H18" t="n">
-        <v>107.6</v>
+        <v>112.6</v>
       </c>
       <c r="I18" t="n">
         <v>103.7</v>
       </c>
       <c r="J18" t="n">
-        <v>110</v>
+        <v>102.3</v>
       </c>
       <c r="K18" t="n">
-        <v>101.3</v>
+        <v>107.3</v>
       </c>
       <c r="L18" t="n">
-        <v>104.5</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Образование</t>
+          <t>Государственное управление и оборона</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>122.7</v>
+        <v>110.6</v>
       </c>
       <c r="C19" t="n">
-        <v>115.9</v>
+        <v>103.4</v>
       </c>
       <c r="D19" t="n">
-        <v>118.1</v>
+        <v>105.3</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9</v>
+        <v>106.6</v>
       </c>
       <c r="F19" t="n">
-        <v>114.3</v>
+        <v>102.9</v>
       </c>
       <c r="G19" t="n">
-        <v>110.8</v>
+        <v>121.2</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1</v>
+        <v>107.6</v>
       </c>
       <c r="I19" t="n">
-        <v>105.2</v>
+        <v>103.7</v>
       </c>
       <c r="J19" t="n">
-        <v>95.40000000000001</v>
+        <v>110</v>
       </c>
       <c r="K19" t="n">
-        <v>93</v>
+        <v>101.3</v>
       </c>
       <c r="L19" t="n">
-        <v>95.2</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Здравоохранение</t>
+          <t>Образование</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>123.1</v>
+        <v>122.7</v>
       </c>
       <c r="C20" t="n">
-        <v>121</v>
+        <v>115.9</v>
       </c>
       <c r="D20" t="n">
-        <v>125.6</v>
+        <v>118.1</v>
       </c>
       <c r="E20" t="n">
-        <v>113.7</v>
+        <v>113.9</v>
       </c>
       <c r="F20" t="n">
-        <v>114.7</v>
+        <v>114.3</v>
       </c>
       <c r="G20" t="n">
-        <v>107.6</v>
+        <v>110.8</v>
       </c>
       <c r="H20" t="n">
-        <v>98.40000000000001</v>
+        <v>110.1</v>
       </c>
       <c r="I20" t="n">
-        <v>93.59999999999999</v>
+        <v>105.2</v>
       </c>
       <c r="J20" t="n">
-        <v>89.40000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>97.3</v>
+        <v>93</v>
       </c>
       <c r="L20" t="n">
-        <v>99.90000000000001</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Искусство, развлечения и отдых</t>
+          <t>Здравоохранение</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>101.9</v>
+        <v>123.1</v>
       </c>
       <c r="C21" t="n">
-        <v>89.7</v>
+        <v>121</v>
       </c>
       <c r="D21" t="n">
-        <v>100.7</v>
+        <v>125.6</v>
       </c>
       <c r="E21" t="n">
-        <v>96.90000000000001</v>
+        <v>113.7</v>
       </c>
       <c r="F21" t="n">
-        <v>87.5</v>
+        <v>114.7</v>
       </c>
       <c r="G21" t="n">
-        <v>106.7</v>
+        <v>107.6</v>
       </c>
       <c r="H21" t="n">
-        <v>102</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="I21" t="n">
-        <v>99.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>101.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>99.8</v>
+        <v>97.3</v>
       </c>
       <c r="L21" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>Искусство, развлечения и отдых</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="C22" t="n">
+        <v>89.7</v>
+      </c>
+      <c r="D22" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="E22" t="n">
+        <v>96.90000000000001</v>
+      </c>
+      <c r="F22" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>102</v>
+      </c>
+      <c r="I22" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Предоставление прочих видов услуг</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>97</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>104.2</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>102.8</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>97.5</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F23" t="n">
         <v>100</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G23" t="n">
         <v>86.2</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>91.2</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>90.7</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J23" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="K22" t="n">
+      <c r="K23" t="n">
         <v>91.40000000000001</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>101.6</v>
       </c>
     </row>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,9 +432,6 @@
       <c r="G1" t="n">
         <v>2022</v>
       </c>
-      <c r="K1" t="n">
-        <v>2023</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -487,16 +484,6 @@
           <t>4 кв</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1 кв</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2 кв</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -531,12 +518,6 @@
       <c r="J3" t="n">
         <v>102.8</v>
       </c>
-      <c r="K3" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="L3" t="n">
-        <v>101.2</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -571,12 +552,6 @@
       <c r="J4" t="n">
         <v>103.8</v>
       </c>
-      <c r="K4" t="n">
-        <v>103.8</v>
-      </c>
-      <c r="L4" t="n">
-        <v>106.9</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -611,12 +586,6 @@
       <c r="J5" t="n">
         <v>108.7</v>
       </c>
-      <c r="K5" t="n">
-        <v>101.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>104.1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -651,12 +620,6 @@
       <c r="J6" t="n">
         <v>111.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>103.2</v>
-      </c>
-      <c r="L6" t="n">
-        <v>103.7</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -691,12 +654,6 @@
       <c r="J7" t="n">
         <v>106.2</v>
       </c>
-      <c r="K7" t="n">
-        <v>100.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>104.1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -731,12 +688,6 @@
       <c r="J8" t="n">
         <v>106.2</v>
       </c>
-      <c r="K8" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="L8" t="n">
-        <v>103.9</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -771,12 +722,6 @@
       <c r="J9" t="n">
         <v>105.7</v>
       </c>
-      <c r="K9" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>104.9</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -811,12 +756,6 @@
       <c r="J10" t="n">
         <v>118.7</v>
       </c>
-      <c r="K10" t="n">
-        <v>112.1</v>
-      </c>
-      <c r="L10" t="n">
-        <v>96.5</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -851,12 +790,6 @@
       <c r="J11" t="n">
         <v>106.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>105.3</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -891,12 +824,6 @@
       <c r="J12" t="n">
         <v>109.2</v>
       </c>
-      <c r="K12" t="n">
-        <v>102.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>107.7</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -931,12 +858,6 @@
       <c r="J13" t="n">
         <v>110.9</v>
       </c>
-      <c r="K13" t="n">
-        <v>107.7</v>
-      </c>
-      <c r="L13" t="n">
-        <v>97.40000000000001</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -971,12 +892,6 @@
       <c r="J14" t="n">
         <v>110.3</v>
       </c>
-      <c r="K14" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="L14" t="n">
-        <v>117.5</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1011,12 +926,6 @@
       <c r="J15" t="n">
         <v>100.8</v>
       </c>
-      <c r="K15" t="n">
-        <v>96.3</v>
-      </c>
-      <c r="L15" t="n">
-        <v>104.8</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1051,12 +960,6 @@
       <c r="J16" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="K16" t="n">
-        <v>91.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1091,12 +994,6 @@
       <c r="J17" t="n">
         <v>101.2</v>
       </c>
-      <c r="K17" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="L17" t="n">
-        <v>100.3</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1131,12 +1028,6 @@
       <c r="J18" t="n">
         <v>102.3</v>
       </c>
-      <c r="K18" t="n">
-        <v>107.3</v>
-      </c>
-      <c r="L18" t="n">
-        <v>100.3</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1171,12 +1062,6 @@
       <c r="J19" t="n">
         <v>110</v>
       </c>
-      <c r="K19" t="n">
-        <v>101.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>104.5</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1211,12 +1096,6 @@
       <c r="J20" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="K20" t="n">
-        <v>93</v>
-      </c>
-      <c r="L20" t="n">
-        <v>95.2</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1251,12 +1130,6 @@
       <c r="J21" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="K21" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>99.90000000000001</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1291,12 +1164,6 @@
       <c r="J22" t="n">
         <v>101.3</v>
       </c>
-      <c r="K22" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="L22" t="n">
-        <v>102</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1331,18 +1198,11 @@
       <c r="J23" t="n">
         <v>81.59999999999999</v>
       </c>
-      <c r="K23" t="n">
-        <v>91.40000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>101.6</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/real_wage_index.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,6 +432,9 @@
       <c r="G1" t="n">
         <v>2022</v>
       </c>
+      <c r="K1" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -484,6 +487,21 @@
           <t>4 кв</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1 кв</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>2 кв</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3 кв</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -518,6 +536,15 @@
       <c r="J3" t="n">
         <v>102.8</v>
       </c>
+      <c r="K3" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>103.5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -552,6 +579,15 @@
       <c r="J4" t="n">
         <v>103.8</v>
       </c>
+      <c r="K4" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="L4" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>95.3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -586,6 +622,15 @@
       <c r="J5" t="n">
         <v>108.7</v>
       </c>
+      <c r="K5" t="n">
+        <v>101.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -620,6 +665,15 @@
       <c r="J6" t="n">
         <v>111.5</v>
       </c>
+      <c r="K6" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>103.2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -654,6 +708,15 @@
       <c r="J7" t="n">
         <v>106.2</v>
       </c>
+      <c r="K7" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>106.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -688,6 +751,15 @@
       <c r="J8" t="n">
         <v>106.2</v>
       </c>
+      <c r="K8" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="L8" t="n">
+        <v>103.9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -722,6 +794,15 @@
       <c r="J9" t="n">
         <v>105.7</v>
       </c>
+      <c r="K9" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>104.9</v>
+      </c>
+      <c r="M9" t="n">
+        <v>112.9</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -756,6 +837,15 @@
       <c r="J10" t="n">
         <v>118.7</v>
       </c>
+      <c r="K10" t="n">
+        <v>112.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>101.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -790,6 +880,15 @@
       <c r="J11" t="n">
         <v>106.4</v>
       </c>
+      <c r="K11" t="n">
+        <v>101.9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>105.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -824,6 +923,15 @@
       <c r="J12" t="n">
         <v>109.2</v>
       </c>
+      <c r="K12" t="n">
+        <v>102.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="M12" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -858,6 +966,15 @@
       <c r="J13" t="n">
         <v>110.9</v>
       </c>
+      <c r="K13" t="n">
+        <v>107.7</v>
+      </c>
+      <c r="L13" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="M13" t="n">
+        <v>99.59999999999999</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -892,6 +1009,15 @@
       <c r="J14" t="n">
         <v>110.3</v>
       </c>
+      <c r="K14" t="n">
+        <v>108.6</v>
+      </c>
+      <c r="L14" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="M14" t="n">
+        <v>114.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -926,6 +1052,15 @@
       <c r="J15" t="n">
         <v>100.8</v>
       </c>
+      <c r="K15" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>110.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -960,6 +1095,15 @@
       <c r="J16" t="n">
         <v>85.90000000000001</v>
       </c>
+      <c r="K16" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>100</v>
+      </c>
+      <c r="M16" t="n">
+        <v>104.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -994,6 +1138,15 @@
       <c r="J17" t="n">
         <v>101.2</v>
       </c>
+      <c r="K17" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="L17" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>101.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1028,6 +1181,15 @@
       <c r="J18" t="n">
         <v>102.3</v>
       </c>
+      <c r="K18" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>100.3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>103.8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1062,6 +1224,15 @@
       <c r="J19" t="n">
         <v>110</v>
       </c>
+      <c r="K19" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>104.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>106.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1096,6 +1267,15 @@
       <c r="J20" t="n">
         <v>95.40000000000001</v>
       </c>
+      <c r="K20" t="n">
+        <v>93</v>
+      </c>
+      <c r="L20" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>98.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1130,6 +1310,15 @@
       <c r="J21" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="K21" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M21" t="n">
+        <v>104.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1164,6 +1353,15 @@
       <c r="J22" t="n">
         <v>101.3</v>
       </c>
+      <c r="K22" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>102</v>
+      </c>
+      <c r="M22" t="n">
+        <v>106.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1198,11 +1396,21 @@
       <c r="J23" t="n">
         <v>81.59999999999999</v>
       </c>
+      <c r="K23" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>104.3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
